--- a/targetList.xlsx
+++ b/targetList.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\checkBlogMembers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C05B55C7-6D26-4DAA-A3B8-CB4708E7EC11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC1D0F63-2046-473D-BCDB-6AA61EF46CB0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{90B8D94F-8A71-48A0-B6F2-D2260922BFEE}"/>
   </bookViews>
@@ -34,119 +34,576 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="190">
+  <si>
+    <t>먕이</t>
+  </si>
+  <si>
+    <t>써니블리</t>
+  </si>
+  <si>
+    <t>메이제이</t>
+  </si>
+  <si>
+    <t>홍나물</t>
+  </si>
+  <si>
+    <t>포스트유저</t>
+  </si>
+  <si>
+    <t>포스트 주소</t>
+  </si>
   <si>
     <t>검토멤버</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>포스트유저</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>포스트 주소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>디해</t>
-  </si>
-  <si>
-    <t>탬쓰</t>
-  </si>
-  <si>
-    <t>먕이</t>
-  </si>
-  <si>
-    <t>써니블리</t>
-  </si>
-  <si>
-    <t>https://in.naver.com/chs3202/contents/258039385097760?query=%ED%83%88%EB%AA%A8%EC%83%B4%ED%91%B8</t>
-  </si>
-  <si>
-    <t>솜블리</t>
-  </si>
-  <si>
-    <t>https://in.naver.com/sinni88/contents/258092387657280?query=%EB%8B%A4%EB%82%AD%EC%84%B1%EB%82%9C%EC%86%8C%EC%A6%9D%ED%9B%84%EA%B5%B0%EC%9E%84%EC%8B%A0</t>
-  </si>
-  <si>
-    <t>요리요리</t>
-  </si>
-  <si>
-    <t>https://blog.naver.com/pine0426/222191173517</t>
-  </si>
-  <si>
-    <t>메이제이</t>
-  </si>
-  <si>
-    <t>https://in.naver.com/tree242900/contents/257812571543264?query=%EB%B9%84%EB%93%AC%EC%83%B4%ED%91%B8%EC%B6%94%EC%B2%9C</t>
-  </si>
-  <si>
-    <t>홍나물</t>
-  </si>
-  <si>
-    <t>https://m.blog.naver.com/hongnamul67/222182407747</t>
-  </si>
-  <si>
-    <t>https://in.naver.com/tree242900/contents/257425212621696?query=%EB%A8%B9%EB%8A%94+%EC%BD%9C%EB%9D%BC%EA%B2%90+%EC%B6%94%EC%B2%9C</t>
-  </si>
-  <si>
-    <t>바게트</t>
-  </si>
-  <si>
-    <t>https://m.blog.naver.com/ng0220/222190882304</t>
-  </si>
-  <si>
-    <t>팔오팔칠</t>
-  </si>
-  <si>
-    <t>https://m.blog.naver.com/joal0421/222191182065</t>
-  </si>
-  <si>
-    <t>https://m.blog.naver.com/joal0421/222190700127</t>
-  </si>
-  <si>
-    <t>고기싸롱</t>
-  </si>
-  <si>
-    <t>https://blog.naver.com/gogissalon/222190180619</t>
-  </si>
-  <si>
-    <t>http://m.search.naver.com/search.naver?where=m_view&amp;sm=mtb_jum&amp;query=왕십리+상권분석&amp;url=https://blog.naver.com/gogissalon/222153192021</t>
-  </si>
-  <si>
-    <t>발이바게트</t>
-  </si>
-  <si>
-    <t>https://m.blog.naver.com/i_willgo/222190907365</t>
-  </si>
-  <si>
-    <t>망고노트</t>
-  </si>
-  <si>
-    <t>https://m.blog.naver.com/wjdalsry277/222190961111</t>
-  </si>
-  <si>
-    <t>https://m.blog.naver.com/ng0220/221382010026</t>
-  </si>
-  <si>
-    <t>라즈베리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요미맘</t>
+  </si>
+  <si>
+    <t>https://in.naverpp.com/tgt1232/challenge/258862546863552/258836247783040?query=%EC%B4%88%EB%93%B1%EC%B1%85%EA%B0%80%EB%B0%A9</t>
+  </si>
+  <si>
+    <t>702story</t>
+  </si>
+  <si>
+    <t>갓잇코리아</t>
+  </si>
+  <si>
+    <t>https://m.post.naver.com/viewer/postView.nhn?volumeNo=30412957</t>
+  </si>
+  <si>
+    <t>salesdotcom</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/hongnamul67/222159309938</t>
+  </si>
+  <si>
+    <t>Serena</t>
+  </si>
+  <si>
+    <t>연우냥집사겸엄마</t>
+  </si>
+  <si>
+    <t>http://m.search.naver.com/search.naver?where=m_view&amp;sm=mtb_jum&amp;query=대구+보건소+코로나검사+무료&amp;url=https://m.blog.naver.com/assa9370/222190726272</t>
+  </si>
+  <si>
+    <t>sonmong</t>
+  </si>
+  <si>
+    <t>쓸에기</t>
+  </si>
+  <si>
+    <t>http://m.search.naver.com/search.naver?where=m&amp;sm=mtb_jum&amp;query=티르티르+마이글로우크림쿠션&amp;url=https://m.blog.naver.com/iponeuser94/222158735067</t>
+  </si>
+  <si>
+    <t>킴치</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/igodi8053/222019441790</t>
+  </si>
+  <si>
+    <t>고블리스펙트</t>
+  </si>
+  <si>
+    <t>딜라잇</t>
+  </si>
+  <si>
+    <t>https://blog.naver.com/macrame_delight/222198809221</t>
   </si>
   <si>
     <t>곱단</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>옝니</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스탈라떼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>테스터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쭈</t>
+  </si>
+  <si>
+    <t>http://m.search.naver.com/search.naver?where=m&amp;sm=mtb_jum&amp;query=유아+프린트학습지&amp;url=https://m.blog.naver.com/dntjd291/222198954253</t>
+  </si>
+  <si>
+    <t>김동화</t>
+  </si>
+  <si>
+    <t>https://in.naver.com/702story/challenge/260729915750272/260729821452992</t>
+  </si>
+  <si>
+    <t>꾸댁</t>
+  </si>
+  <si>
+    <t>안녕</t>
+  </si>
+  <si>
+    <t>https://blog.naver.com/gkfmvp/222198934215</t>
+  </si>
+  <si>
+    <t>나나의봄날</t>
+  </si>
+  <si>
+    <t>이추</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/warmguy_seop/222174964695</t>
+  </si>
+  <si>
+    <t>나리</t>
+  </si>
+  <si>
+    <t>콩천사</t>
+  </si>
+  <si>
+    <t>http://m.search.naver.com/search.naver?where=m&amp;sm=mtb_jum&amp;query=어린이집+옮길때&amp;url=http://m.blog.naver.com/congangel1004/222197080873</t>
+  </si>
+  <si>
+    <t>달곰쭈</t>
+  </si>
+  <si>
+    <t>http://m.search.naver.com/search.naver?where=m&amp;sm=mtb_jum&amp;query=알로알로+순수치약&amp;url=http://m.blog.naver.com/congangel1004/222197060469</t>
+  </si>
+  <si>
+    <t>http://m.search.naver.com/search.naver?where=m&amp;sm=mtb_jum&amp;query=쌍둥이+육아일기&amp;url=http://m.blog.naver.com/congangel1004/222195749110</t>
+  </si>
+  <si>
+    <t>뚜띠홀릭</t>
+  </si>
+  <si>
+    <t>모개</t>
+  </si>
+  <si>
+    <t>http://search.naver.com/search.naver?where=m&amp;sm=mtb_jum&amp;query=직장인+도시락&amp;url=https://blog.naver.com/kvivid33/222198459886</t>
+  </si>
+  <si>
+    <t>렬이는</t>
+  </si>
+  <si>
+    <t>https://blog.naver.com/semee6990/222169695609</t>
+  </si>
+  <si>
+    <t>로즈언니</t>
+  </si>
+  <si>
+    <t>짱짱이</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/mh205021/222198488122</t>
+  </si>
+  <si>
+    <t>몽몽</t>
+  </si>
+  <si>
+    <t>http://m.search.naver.com/search.naver?where=m_view&amp;sm=mtb_jum&amp;query=캠프통아일랜드&amp;url=https://m.blog.naver.com/dcmall88/222199299249</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/youngah1321/222014261488</t>
+  </si>
+  <si>
+    <t>뚝딱이맘</t>
+  </si>
+  <si>
+    <t>https://blog.naver.com/oh_daeri/222198553101</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/koko0616/222143688582</t>
+  </si>
+  <si>
+    <t>베르맘</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/hongnamul67/222179318921</t>
+  </si>
+  <si>
+    <t>블랙로제</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/zhdzhddl1003/222195768919</t>
+  </si>
+  <si>
+    <t>빵순</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/zhdzhddl1003/222195058862</t>
+  </si>
+  <si>
+    <t>스텔라떼</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/zhdzhddl1003/222194029652</t>
+  </si>
+  <si>
+    <t>시크한청개구리</t>
+  </si>
+  <si>
+    <t>http://m.search.naver.com/search.naver?where=m&amp;sm=mtb_jum&amp;query=여의도맛집+엉터리생고기&amp;url=https://m.blog.naver.com/iponeuser94/222122869806</t>
+  </si>
+  <si>
+    <t>인포메이션1</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/all90lla/222077971494</t>
+  </si>
+  <si>
+    <t>쏘지</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/ronaldo7613/222111875567</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/nam9821/222167387747</t>
+  </si>
+  <si>
+    <t>아한</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/codi94/222199292989</t>
+  </si>
+  <si>
+    <t>오롤</t>
+  </si>
+  <si>
+    <t>http://m.search.naver.com/search.naver?where=m&amp;sm=mtb_jum&amp;query=세이지폴+쇼파&amp;url=https://blog.naver.com/korearora/222197649149</t>
+  </si>
+  <si>
+    <t>http://m.search.naver.com/search.naver?where=m&amp;sm=mtb_jum&amp;query=유아식+닭봉&amp;url=https://m.blog.naver.com/korearora/222199020834</t>
+  </si>
+  <si>
+    <t>연이</t>
+  </si>
+  <si>
+    <t>http://search.naver.com/search.naver?where=m&amp;sm=mtb_jum&amp;query=영웅문s+사용법&amp;url=https://blog.naver.com/kvivid33/222196804681</t>
+  </si>
+  <si>
+    <t>영또야</t>
+  </si>
+  <si>
+    <t>https://in.naver.com/wonny801/challenge/260893234469024/260875827698336?query=%EC%95%84%EA%B8%B0%EB%B9%84%ED%83%80%EB%AF%BCd</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/warmguy_seop/222157986824</t>
+  </si>
+  <si>
+    <t>https://in.naver.com/chs3202/contents/260467134040800?query=%EC%97%AC%EC%9E%90%ED%83%88%EB%AA%A8%EC%83%B4%ED%91%B8</t>
+  </si>
+  <si>
+    <t>요양원님이</t>
+  </si>
+  <si>
+    <t>http://m.search.naver.com/search.naver?where=m&amp;sm=mtb_jum&amp;query=엄마표+미술놀이&amp;url=https://m.blog.naver.com/dntjd291/222186283334</t>
+  </si>
+  <si>
+    <t>우블리맘</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/flowerstar_7/222198144626</t>
+  </si>
+  <si>
+    <t>이라니</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/flowerstar_7/222199329634</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/flowerstar_7/222199554438</t>
+  </si>
+  <si>
+    <t>라비키친</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/PostView.nhn?blogId=ssuujin&amp;logNo=222199518804&amp;navType=tl</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/ssuujin/222198510406</t>
+  </si>
+  <si>
+    <t>http://m.search.naver.com/search.naver?where=m_view&amp;sm=mtb_jum&amp;query=대구+다이어트+한의원+설명&amp;url=https://m.blog.naver.com/assa9370/222126677765</t>
+  </si>
+  <si>
+    <t>초록뱀</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/nagoya07/222199453422</t>
+  </si>
+  <si>
+    <t>카매니아님이</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/nagoya07/222199532661</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/sopisy1/222197304167</t>
+  </si>
+  <si>
+    <t>호하여미</t>
+  </si>
+  <si>
+    <t>https://in.naver.com/lsr0327/challenge/259459853137248/259459752121952</t>
+  </si>
+  <si>
+    <t>타니빵야</t>
+  </si>
+  <si>
+    <t>https://in.naver.com/lsr0327/challenge/259455012677088/259454899201696</t>
+  </si>
+  <si>
+    <t>탕탕</t>
+  </si>
+  <si>
+    <t>https://in.naver.com/lsr0327/challenge/259488667301344/259488485471840</t>
+  </si>
+  <si>
+    <t>토낑이</t>
+  </si>
+  <si>
+    <t>렬이는 열일중</t>
+  </si>
+  <si>
+    <t>https://blog.naver.com/1004goods/222199656470</t>
+  </si>
+  <si>
+    <t>https://blog.naver.com/semee6990/222111458128</t>
+  </si>
+  <si>
+    <t>흥오리</t>
+  </si>
+  <si>
+    <t>http://m.search.naver.com/search.naver?where=m_view&amp;sm=mtb_jum&amp;query=크로플+만들기&amp;url=https://m.blog.naver.com/dcmall88/222195611082</t>
+  </si>
+  <si>
+    <t>https://in.naver.com/702story/challenge/260885597738880/248028376107808</t>
+  </si>
+  <si>
+    <t>https://blog.naver.com/macrame_delight/222198874746</t>
+  </si>
+  <si>
+    <t>https://blog.naver.com/ujk00789/222199701293</t>
+  </si>
+  <si>
+    <t>쓸애기</t>
+  </si>
+  <si>
+    <t>http://m.search.naver.com/search.naver?where=m&amp;sm=mtb_jum&amp;query=맘스터치내슈빌핫치킨버거+코울슬로우&amp;url=https://m.blog.naver.com/iponeuser94/222175948864</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/youngah1321/222133814431</t>
+  </si>
+  <si>
+    <t>http://search.naver.com/search.naver?where=m&amp;sm=mtb_jum&amp;query=테슬라+주가&amp;url=https://blog.naver.com/kvivid33/222199525683</t>
+  </si>
+  <si>
+    <t>https://blog.naver.com/oh_daeri/222199712297</t>
+  </si>
+  <si>
+    <t>https://blog.naver.com/algid2/222199280738</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/mh205021/222199568393</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/codi94/222199465405</t>
+  </si>
+  <si>
+    <t>http://m.search.naver.com/search.naver?where=m_influencer&amp;sm=mtb_jum&amp;query=아기영양제&amp;url=https://in.naver.com/wonny801/contents/260875827698336</t>
+  </si>
+  <si>
+    <t>https://blog.naver.com/gkfmvp/222198876404</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/yoooooujin/221928656573</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/igodi8053/222019938502</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/sopisy1/222199785949</t>
+  </si>
+  <si>
+    <t>https://post.naver.com/viewer/postView.nhn?volumeNo=30419790</t>
+  </si>
+  <si>
+    <t>https://blog.naver.com/skfk0220/222198710423</t>
+  </si>
+  <si>
+    <t>https://blog.naver.com/skfk0220/222198512205</t>
+  </si>
+  <si>
+    <t>https://blog.naver.com/skfk0220/222195556229</t>
+  </si>
+  <si>
+    <t>https://blog.naver.com/tjdudalsdud/222189545649</t>
+  </si>
+  <si>
+    <t>http://m.search.naver.com/search.naver?where=m_view&amp;sm=mtb_jum&amp;query=글램핑+준비물&amp;url=https://m.blog.naver.com/dcmall88/222198028191</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/hongnamul67/222056707248</t>
+  </si>
+  <si>
+    <t>http://blog.naver.com/ssoji0613/222198343776</t>
+  </si>
+  <si>
+    <t>https://in.naver.com/ssoji/challenge/259854853719649/226177738464096</t>
+  </si>
+  <si>
+    <t>파이어족</t>
+  </si>
+  <si>
+    <t>https://blog.naver.com/645106/222199887112</t>
+  </si>
+  <si>
+    <t>https://blog.naver.com/645106/222194669719</t>
+  </si>
+  <si>
+    <t>https://blog.naver.com/645106/222190663878</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/rodkrekdthsu/222190666357</t>
+  </si>
+  <si>
+    <t>https://blog.naver.com/rodkrekdthsu/222198684375</t>
+  </si>
+  <si>
+    <t>https://blog.naver.com/rodkrekdthsu/222197501499</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/hyueonny/222199004051</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/hyueonny/222198957424</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/hyueonny/222197848816</t>
+  </si>
+  <si>
+    <t>https://blog.naver.com/macrame_delight/222157257284</t>
+  </si>
+  <si>
+    <t>http://m.search.naver.com/search.naver?where=m&amp;sm=mtb_jum&amp;query=에덴힐스+캐비올쿠션&amp;url=https://m.blog.naver.com/ddoni_mo/222199944892</t>
+  </si>
+  <si>
+    <t>http://m.search.naver.com/search.naver?where=m&amp;sm=mtb_jum&amp;query=끈조절+마스크&amp;url=https://m.blog.naver.com/ddoni_mo/222198265661</t>
+  </si>
+  <si>
+    <t>http://m.search.naver.com/search.naver?where=m&amp;sm=mtb_jum&amp;query=5세+스티커&amp;url=https://m.blog.naver.com/dntjd291/222151976272</t>
+  </si>
+  <si>
+    <t>https://blog.naver.com/1004goods/222199855156</t>
+  </si>
+  <si>
+    <t>https://in.naver.com/tree242900/contents/260575263939296?query=%EC%97%AC%EC%84%B1%EC%B2%AD%EA%B2%B0%EC%A0%9C+%EC%B6%94%EC%B2%9C</t>
+  </si>
+  <si>
+    <t>https://in.naver.com/tree242900/contents/260849450126080?query=%EC%8A%A4%ED%82%A8%EC%BC%80%EC%96%B4+%EC%B6%94%EC%B2%9C</t>
+  </si>
+  <si>
+    <t>http://m.search.naver.com/search.naver?where=m_view&amp;sm=mtb_jum&amp;query=고양이+근접+사진+코숏+치즈+태비&amp;url=https://m.blog.naver.com/assa9370/222144718912</t>
+  </si>
+  <si>
+    <t>https://in.naver.com/tree242900/contents/260138107799808?query=%EB%A7%88%EC%8A%A4%ED%81%AC%ED%8C%A9+%EC%B6%94%EC%B2%9C</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/ujk00789/222152985546</t>
+  </si>
+  <si>
+    <t>https://blog.naver.com/semee6990/222143480021</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/ujk00789/222168294881</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/codi94/222103980999</t>
+  </si>
+  <si>
+    <t>https://in.naver.com/chs3202/contents/260820966128288?query=%EC%A3%BC%EA%B7%BC%EA%B9%A8%EC%97%86%EC%95%A0%EB%8A%94%EB%B2%95</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/warmguy_seop/222151489512</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/igodi8053/222020901410</t>
+  </si>
+  <si>
+    <t>https://in.naver.com/ssoji/challenge/261010345666720/261009667099680</t>
+  </si>
+  <si>
+    <t>https://blog.naver.com/f1snake1/222187545630</t>
+  </si>
+  <si>
+    <t>https://blog.naver.com/f1snake1/222199007156</t>
+  </si>
+  <si>
+    <t>https://blog.naver.com/algid2/222016386696</t>
+  </si>
+  <si>
+    <t>https://blog.naver.com/f1snake1/222196769634</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/vertan/222170800896</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/vertan/222096722144</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/yoooooujin/221929125180</t>
+  </si>
+  <si>
+    <t>https://blog.naver.com/gkfmvp/222200099439</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/mh205021/222199466354</t>
+  </si>
+  <si>
+    <t>https://blog.naver.com/1004goods/222193988432</t>
+  </si>
+  <si>
+    <t>http://m.search.naver.com/search.naver?where=m&amp;sm=mtb_jum&amp;query=백일토퍼+만들기&amp;url=https://m.blog.naver.com/korearora/221796334661</t>
+  </si>
+  <si>
+    <t>https://blog.naver.com/dlathdus2002/222041636571</t>
+  </si>
+  <si>
+    <t>https://blog.naver.com/tjdudalsdud/222022548264</t>
+  </si>
+  <si>
+    <t>https://blog.naver.com/tjdudalsdud/222019111503</t>
+  </si>
+  <si>
+    <t>http://m.search.naver.com/search.naver?where=m&amp;sm=mtb_jum&amp;query=스타벅스+케이크&amp;url=https://m.blog.naver.com/amera9128/222111433680</t>
+  </si>
+  <si>
+    <t>https://blog.naver.com/dlathdus2002/222037676928</t>
+  </si>
+  <si>
+    <t>https://in.naver.com/wonny801/contents/260875827698336?query=%EC%9C%A0%EC%95%84%EC%98%81%EC%96%91%EC%A0%9C</t>
+  </si>
+  <si>
+    <t>http://m.search.naver.com/search.naver?where=m_view&amp;sm=mtb_jum&amp;query=커피+좋은시간&amp;url=https://m.blog.naver.com/hometaco/222198157700</t>
+  </si>
+  <si>
+    <t>http://m.search.naver.com/search.naver?where=m_view&amp;sm=mtb_jum&amp;query=이색커피&amp;url=https://m.blog.naver.com/hometaco/222191622752</t>
+  </si>
+  <si>
+    <t>http://m.search.naver.com/search.naver?where=m&amp;sm=mtb_jum&amp;query=컴퓨터기초&amp;url=https://m.blog.naver.com/chictreefrog/222110144404</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/ksuzy0329/222197759250</t>
+  </si>
+  <si>
+    <t>https://blog.naver.com/dlathdus2002/222061797693</t>
+  </si>
+  <si>
+    <t>http://m.search.naver.com/search.naver?where=m&amp;sm=mtb_jum&amp;query=네이버카페+공유&amp;url=https://m.blog.naver.com/chictreefrog/222152624403</t>
+  </si>
+  <si>
+    <t>http://m.search.naver.com/search.naver?where=m&amp;sm=mtb_jum&amp;query=한글타자연습&amp;url=https://m.blog.naver.com/chictreefrog/222192051092</t>
+  </si>
+  <si>
+    <t>https://in.naver.com/artistwoovely/challenge/260966090881184/260951960390624?query=%ED%86%A0%EB%93%A4%EB%9F%AC+%EC%B9%B4%EC%8B%9C%ED%8A%B8</t>
+  </si>
+  <si>
+    <t>https://in.naver.com/artistwoovely/challenge/260642674501536/237170634195296</t>
+  </si>
+  <si>
+    <t>https://in.naver.com/artistwoovely/challenge/260325325887520/234115665574368</t>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/ssuujin/222200241996</t>
   </si>
 </sst>
 </file>
@@ -213,7 +670,10 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -534,10 +994,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F05F821D-DFBE-4755-88A2-7478D1638F31}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -548,162 +1008,1219 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C53" s="1"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C54" s="1"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C55" s="1"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C56" s="1"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C57" s="1"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C58" s="1"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C59" s="1"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C60" s="1"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C61" s="1"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C62" s="1"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C63" s="1"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C64" s="1"/>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B92" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B106" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="B118" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" t="s">
-        <v>29</v>
+      <c r="B121" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>189</v>
       </c>
     </row>
   </sheetData>
